--- a/src/main/resources/universityInfo.xlsx
+++ b/src/main/resources/universityInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flagman_Zed\IdeaProjects\FlagmanLeaning\src\HomeExercize\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58AA217-5591-430A-90FF-7D38BDFF9E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2B4AE7-21B1-4C05-BFE5-91D164128323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t>Васильев В. П.</t>
   </si>
   <si>
-    <t>FOREIGNLANGUAGE</t>
-  </si>
-  <si>
     <t>Московский институт иностранных языков</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>Московский Государственный Лингвистический Университет</t>
   </si>
   <si>
-    <t>PHYSICALEDUCATION</t>
-  </si>
-  <si>
     <t>ИНЯЗ им. М.Тореза</t>
   </si>
   <si>
@@ -142,6 +136,12 @@
   </si>
   <si>
     <t>КГУФК</t>
+  </si>
+  <si>
+    <t>FOREIGN_LANGUAGE</t>
+  </si>
+  <si>
+    <t>PHYSICAL_EDUCATION</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,16 +756,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
       </c>
       <c r="D2">
         <v>1990</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -773,16 +773,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
       </c>
       <c r="D3">
         <v>1930</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -790,10 +790,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>1956</v>
@@ -807,10 +807,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>1930</v>
@@ -824,16 +824,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>1896</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -841,16 +841,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>1969</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
